--- a/data/hestia/water.xlsx
+++ b/data/hestia/water.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
   <si>
     <t xml:space="preserve">term.id</t>
   </si>
@@ -169,6 +169,9 @@
     <t xml:space="preserve">The amount of water from piped municipal water supplies. For irrigation, the quantity should represent the amount actually being introduced to the field, and therefore excludes losses related to transporting the water to the field "conveyancing losses".</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/c5adb1fb-872e-4446-a3bb-c4b61aa4bd45</t>
+  </si>
+  <si>
     <t xml:space="preserve">Water, brackish</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://aims.fao.org/aos/agrovoc/c_7b960f69 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://glossary.ecoinvent.org/ids/dee1a118-12e5-47eb-8daa-f4cf683e4a5a</t>
   </si>
   <si>
     <t xml:space="preserve">Ice, source unspecified</t>
@@ -219,7 +225,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -253,14 +259,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -307,7 +305,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,66 +329,62 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -417,13 +411,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0563C1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -466,7 +453,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -521,79 +508,80 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="2.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="3" width="5.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="3" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="40.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>waterSourceUnspecified</v>
@@ -602,25 +590,25 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C2),1,1,LOWER(LEFT(C2,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>water, Source Unspecified</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -653,7 +641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>waterPumpedGroundwater</v>
@@ -662,25 +650,25 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C3),1,1,LOWER(LEFT(C3,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>water, Pumped Groundwater</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -713,7 +701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B4,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>waterRiverStream</v>
@@ -722,25 +710,25 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C4),1,1,LOWER(LEFT(C4,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>water, River/Stream</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="K4" s="9" t="s">
@@ -773,7 +761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B5,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>waterLakeOrReservoir</v>
@@ -782,25 +770,25 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C5),1,1,LOWER(LEFT(C5,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>water, Lake Or Reservoir</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="K5" s="9" t="s">
@@ -833,7 +821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B6,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>waterIrrigationCanal</v>
@@ -842,25 +830,25 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C6),1,1,LOWER(LEFT(C6,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>water, Irrigation Canal</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="K6" s="9" t="s">
@@ -893,7 +881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B7,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>waterDrainageCanal</v>
@@ -902,25 +890,25 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C7),1,1,LOWER(LEFT(C7,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>water, Drainage Canal</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="K7" s="9" t="s">
@@ -953,7 +941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B8,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>waterMunicipalTap</v>
@@ -962,26 +950,29 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C8),1,1,LOWER(LEFT(C8,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>water, Municipal Tap</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="s">
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="3" t="n">
         <v>1000</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>24</v>
@@ -1013,7 +1004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>waterBrackish</v>
@@ -1022,25 +1013,25 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C9),1,1,LOWER(LEFT(C9,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>water, Brackish</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="G9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -1073,7 +1064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>waterMarine</v>
@@ -1082,25 +1073,25 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C10),1,1,LOWER(LEFT(C10,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>water, Marine</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="s">
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="K10" s="9" t="s">
@@ -1133,7 +1124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B11,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>waterHarvestedRainfall</v>
@@ -1142,26 +1133,29 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C11),1,1,LOWER(LEFT(C11,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>water, Harvested Rainfall</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="G11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="3" t="n">
         <v>1000</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>24</v>
@@ -1193,7 +1187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="str">
         <f aca="false">CLEAN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B12,"--","-"),"ħ","h"),"å","a"),"æ","ae"),"Ġ","g"),"Č","c"),"ě","e"),"ň","n"),"š","s"),"ě","e"),"ň","n"),"ž","z"),"ř","r"),"č","c"),"ġ","g"),"Ñ","N"),"À","A"),"Á","A"),"Â","A"),"Ã","A"),"Ä","A"),"Ç","C"),"È","E"),"É","E"),"Ê","E"),"Ë","E"),"Ì","I"),"Í","I"),"Î","I"),"Ï","I"),"Ò","O"),"Ó","O"),"Ô","O"),"Õ","O"),"Ö","O"),"Š","S"),"Ú","U"),"Û","U"),"Ü","U"),"Ù","U"),"Ý","Y"),"Ÿ","Y"),"Ž","Z"),"/",""),"\","")," ",""),",",""),"%",""),"®",""),"&amp;",""),"*",""),"+",""),":",""),"#",""),"-",""),"&lt;",""),"&gt;",""))</f>
         <v>iceSourceUnspecified</v>
@@ -1202,25 +1196,25 @@
         <f aca="false">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(REPLACE(PROPER(C12),1,1,LOWER(LEFT(C12,1))),"(",""),")",""),"á","a"),"é","e"),"í","i"),"ó","o"),"ú","u"),"ã","a"),"ê","e"),"â","a"),"é","e"),"è","e"),"î","i"),"ï","i"),"ç","c"),"ä","a"),"ö","o"),"ü","u"),"ß","ss"),"ş","s"),"ı","i"),"ğ","g"),"ę","e"),"ł","l"),"ń","n"),"ś","s"),"ż","z"),"ã","a"),"ầ","a"),"à","a"),"ậ","a"),"đ","d"),"ế","e"),"ì","i"),"í","i"),"ổ","o"),"ô","o"),"ư","u"),"ả","a"),"ế","e"),"ĩ","i"),"ợ","o"),"ồ","o"),"ạ","a"),"ứ","u"),"ý","y"),"ạ","a"),"é","e"),"ỳ","y"),"ế","e"),"ể","e"),"ệ","e"),"ù","u"),"ë","e"),".",""),"Ġ","g"),"ø","o"),"ñ","n"),"'",""),"ō","o")</f>
         <v>ice, Source Unspecified</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="3" t="n">
         <v>917</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -1230,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>27</v>
@@ -1253,17 +1247,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O303" s="8"/>
-      <c r="P303" s="8"/>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O303" s="3"/>
+      <c r="P303" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S11"/>
